--- a/bin/frameCfg/Variable/VariableDataRegionConfig.xlsx
+++ b/bin/frameCfg/Variable/VariableDataRegionConfig.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22430"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{084CF578-B262-4316-BE92-D27EF4B7DDC0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{998729FC-1BE5-4BAD-9C81-7E1EAF578D35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28910" yWindow="-110" windowWidth="29020" windowHeight="15820" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="49">
   <si>
     <t>参数名称</t>
   </si>
@@ -80,14 +80,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>原码下限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>原码上限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>工程值下限</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -183,6 +175,34 @@
   </si>
   <si>
     <t>热控模拟器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lsb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y = a*x*lsb + b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型(连续量/离散量/整型)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -241,7 +261,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -272,6 +292,15 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -641,43 +670,43 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -688,10 +717,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:N222"/>
+  <dimension ref="A1:Q222"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="H3" sqref="H3:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -702,35 +731,38 @@
     <col min="4" max="5" width="7.453125" style="13" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.453125" style="13" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" style="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.08984375" style="13" customWidth="1"/>
-    <col min="9" max="9" width="8.36328125" style="13" customWidth="1"/>
-    <col min="10" max="10" width="13.6328125" style="13" customWidth="1"/>
-    <col min="11" max="11" width="13" style="13" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9" style="13"/>
-    <col min="13" max="13" width="11" style="13" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9" style="13"/>
-    <col min="15" max="15" width="13" style="13" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.26953125" style="13" customWidth="1"/>
-    <col min="17" max="17" width="15.08984375" style="13" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="2.453125" style="13" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.08984375" style="13" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9" style="13"/>
-    <col min="21" max="21" width="13" style="13" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9" style="13"/>
-    <col min="23" max="23" width="11" style="13" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="3.453125" style="13" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13" style="13" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="2.453125" style="13" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13" style="13" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="9" style="13"/>
-    <col min="29" max="29" width="11" style="13" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="9" style="13"/>
-    <col min="31" max="31" width="7.08984375" style="13" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="3.453125" style="13" bestFit="1" customWidth="1"/>
-    <col min="33" max="16384" width="9" style="13"/>
+    <col min="8" max="8" width="11" style="13" customWidth="1"/>
+    <col min="9" max="9" width="12.26953125" style="13" customWidth="1"/>
+    <col min="10" max="10" width="12.6328125" style="13" customWidth="1"/>
+    <col min="11" max="11" width="14.7265625" style="13" customWidth="1"/>
+    <col min="12" max="12" width="10.08984375" style="13" customWidth="1"/>
+    <col min="13" max="13" width="9.36328125" style="13" customWidth="1"/>
+    <col min="14" max="14" width="10.453125" style="13" customWidth="1"/>
+    <col min="15" max="15" width="9" style="13"/>
+    <col min="16" max="16" width="11" style="13" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9" style="13"/>
+    <col min="18" max="18" width="13" style="13" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.26953125" style="13" customWidth="1"/>
+    <col min="20" max="20" width="15.08984375" style="13" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="2.453125" style="13" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.08984375" style="13" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9" style="13"/>
+    <col min="24" max="24" width="13" style="13" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9" style="13"/>
+    <col min="26" max="26" width="11" style="13" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="3.453125" style="13" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13" style="13" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="2.453125" style="13" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13" style="13" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="9" style="13"/>
+    <col min="32" max="32" width="11" style="13" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="9" style="13"/>
+    <col min="34" max="34" width="7.08984375" style="13" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="3.453125" style="13" bestFit="1" customWidth="1"/>
+    <col min="36" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>4</v>
       </c>
@@ -741,20 +773,25 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E1" s="13" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="13">
-        <v>5</v>
-      </c>
-      <c r="L1" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="6"/>
-    </row>
-    <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="Q1" s="6"/>
+    </row>
+    <row r="2" spans="1:17" ht="36.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>6</v>
       </c>
@@ -773,31 +810,40 @@
       <c r="F2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="J2" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2" s="13" t="s">
+      <c r="K2" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="L2" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="M2" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="N2" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="O2" s="13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C3" s="3">
         <v>0</v>
@@ -808,27 +854,36 @@
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H3" s="13">
         <v>0</v>
       </c>
       <c r="I3" s="13">
+        <v>0</v>
+      </c>
+      <c r="J3" s="13">
         <v>255</v>
       </c>
-      <c r="J3" s="13">
+      <c r="K3" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="L3" s="13">
+        <v>5</v>
+      </c>
+      <c r="M3" s="13">
         <v>0</v>
       </c>
-      <c r="K3" s="13">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="N3" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C4" s="3">
         <v>1</v>
@@ -839,27 +894,36 @@
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H4" s="13">
         <v>0</v>
       </c>
       <c r="I4" s="13">
+        <v>0</v>
+      </c>
+      <c r="J4" s="13">
         <v>255</v>
       </c>
-      <c r="J4" s="13">
+      <c r="K4" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="L4" s="13">
+        <v>1</v>
+      </c>
+      <c r="M4" s="13">
         <v>0</v>
       </c>
-      <c r="K4" s="13">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="N4" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C5" s="3">
         <v>5</v>
@@ -870,27 +934,36 @@
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H5" s="13">
         <v>0</v>
       </c>
       <c r="I5" s="13">
+        <v>0</v>
+      </c>
+      <c r="J5" s="13">
         <v>255</v>
       </c>
-      <c r="J5" s="13">
+      <c r="K5" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="L5" s="13">
+        <v>1</v>
+      </c>
+      <c r="M5" s="13">
         <v>0</v>
       </c>
-      <c r="K5" s="13">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="N5" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C6" s="3">
         <v>9</v>
@@ -901,27 +974,36 @@
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H6" s="13">
         <v>0</v>
       </c>
       <c r="I6" s="13">
+        <v>0</v>
+      </c>
+      <c r="J6" s="13">
         <v>255</v>
       </c>
-      <c r="J6" s="13">
+      <c r="K6" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="L6" s="13">
+        <v>1</v>
+      </c>
+      <c r="M6" s="13">
         <v>0</v>
       </c>
-      <c r="K6" s="13">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="N6" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C7" s="3">
         <v>13</v>
@@ -932,27 +1014,36 @@
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H7" s="13">
         <v>0</v>
       </c>
       <c r="I7" s="13">
+        <v>0</v>
+      </c>
+      <c r="J7" s="13">
         <v>255</v>
       </c>
-      <c r="J7" s="13">
+      <c r="K7" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="L7" s="13">
+        <v>1</v>
+      </c>
+      <c r="M7" s="13">
         <v>0</v>
       </c>
-      <c r="K7" s="13">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="N7" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C8" s="3">
         <v>17</v>
@@ -963,27 +1054,36 @@
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H8" s="13">
         <v>0</v>
       </c>
       <c r="I8" s="13">
+        <v>0</v>
+      </c>
+      <c r="J8" s="13">
         <v>255</v>
       </c>
-      <c r="J8" s="13">
+      <c r="K8" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="L8" s="13">
+        <v>1</v>
+      </c>
+      <c r="M8" s="13">
         <v>0</v>
       </c>
-      <c r="K8" s="13">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="N8" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C9" s="3">
         <v>21</v>
@@ -994,22 +1094,31 @@
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H9" s="13">
         <v>0</v>
       </c>
       <c r="I9" s="13">
+        <v>0</v>
+      </c>
+      <c r="J9" s="13">
         <v>255</v>
       </c>
-      <c r="J9" s="13">
+      <c r="K9" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="L9" s="13">
+        <v>1</v>
+      </c>
+      <c r="M9" s="13">
         <v>0</v>
       </c>
-      <c r="K9" s="13">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N9" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
       <c r="B10" s="9"/>
       <c r="C10" s="8"/>
@@ -1017,7 +1126,7 @@
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="9"/>
       <c r="C11" s="8"/>
@@ -1025,7 +1134,7 @@
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="9"/>
       <c r="C12" s="8"/>
@@ -1033,7 +1142,7 @@
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="B13" s="9"/>
       <c r="C13" s="8"/>
@@ -1041,7 +1150,7 @@
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="B14" s="9"/>
       <c r="C14" s="8"/>
@@ -1049,7 +1158,7 @@
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="9"/>
       <c r="C15" s="8"/>
@@ -1057,7 +1166,7 @@
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="B16" s="9"/>
       <c r="C16" s="8"/>
@@ -2714,6 +2823,9 @@
       <c r="F222" s="7"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="L1:N1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/bin/frameCfg/Variable/VariableDataRegionConfig.xlsx
+++ b/bin/frameCfg/Variable/VariableDataRegionConfig.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22430"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{998729FC-1BE5-4BAD-9C81-7E1EAF578D35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{501E84FE-AE9B-4AA7-99F5-78F90C217012}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -720,7 +720,7 @@
   <dimension ref="A1:Q222"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:H9"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -767,7 +767,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>1</v>
@@ -857,7 +857,7 @@
         <v>16</v>
       </c>
       <c r="H3" s="13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" s="13">
         <v>0</v>
@@ -869,7 +869,7 @@
         <v>47</v>
       </c>
       <c r="L3" s="13">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M3" s="13">
         <v>0</v>
@@ -897,7 +897,7 @@
         <v>16</v>
       </c>
       <c r="H4" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" s="13">
         <v>0</v>
